--- a/SVG-Features.xlsx
+++ b/SVG-Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="209">
   <si>
     <t>Eigenschaft</t>
   </si>
@@ -453,9 +453,6 @@
     <t>Ketten davon</t>
   </si>
   <si>
-    <t>Hunderter</t>
-  </si>
-  <si>
     <t>600+ = bold</t>
   </si>
   <si>
@@ -546,12 +543,6 @@
     <t>stroke-miter-limit</t>
   </si>
   <si>
-    <t>siehe unten</t>
-  </si>
-  <si>
-    <t>nur bei miter-clip, glaube ich</t>
-  </si>
-  <si>
     <t>paint-order</t>
   </si>
   <si>
@@ -625,6 +616,33 @@
   </si>
   <si>
     <t>eventuell teilweise mit WidenPath möglich?</t>
+  </si>
+  <si>
+    <t>nur bei stroke-linejoin:miter</t>
+  </si>
+  <si>
+    <t>&lt;0,2 = trans</t>
+  </si>
+  <si>
+    <t>wohl so</t>
+  </si>
+  <si>
+    <t>stroke-opacity</t>
+  </si>
+  <si>
+    <t>Zahl zw. 0 und 1</t>
+  </si>
+  <si>
+    <t>keine Berechnung aus vorherigem Wert</t>
+  </si>
+  <si>
+    <t>100·x, x zw. 1 und 9</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>kein Verlauf</t>
   </si>
 </sst>
 </file>
@@ -707,7 +725,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -716,6 +734,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1066,11 +1087,11 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1087,7 +1108,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1123,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1138,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1153,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -1149,7 +1170,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1185,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1200,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -1196,7 +1217,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1232,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1247,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1262,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -1258,7 +1279,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1294,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1309,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1358,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -1347,14 +1368,14 @@
         <v>98</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1390,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
@@ -1386,7 +1407,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1394,17 +1415,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1415,11 +1436,11 @@
         <v>26</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1430,11 +1451,11 @@
         <v>26</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1449,7 +1470,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1464,7 +1485,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1500,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +1518,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1536,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -1533,7 +1554,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1544,11 +1565,11 @@
         <v>26</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1559,11 +1580,11 @@
         <v>26</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +1599,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1589,11 +1610,11 @@
         <v>26</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -1611,7 +1632,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -1622,11 +1643,11 @@
         <v>26</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -1637,11 +1658,11 @@
         <v>26</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -1655,15 +1676,15 @@
         <v>26</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
@@ -1675,11 +1696,11 @@
         <v>27</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B40" t="s">
@@ -1696,7 +1717,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1732,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>7</v>
       </c>
@@ -1724,12 +1745,12 @@
       <c r="F42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>147</v>
+      <c r="G42" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -1742,10 +1763,10 @@
       <c r="F43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>58</v>
       </c>
@@ -1758,12 +1779,12 @@
       <c r="F44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
         <v>97</v>
@@ -1774,10 +1795,10 @@
       <c r="F45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B46" t="s">
@@ -1793,11 +1814,11 @@
         <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>58</v>
       </c>
@@ -1812,9 +1833,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
         <v>97</v>
@@ -1827,8 +1848,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>183</v>
+      <c r="A49" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="B49" t="s">
         <v>61</v>
@@ -1836,7 +1857,7 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -1847,30 +1868,30 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="11"/>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="11"/>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="3" t="s">
         <v>26</v>
       </c>
@@ -1880,7 +1901,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
@@ -1889,15 +1910,15 @@
         <v>98</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
@@ -1906,43 +1927,43 @@
         <v>98</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" t="s">
-        <v>190</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" t="s">
-        <v>191</v>
-      </c>
       <c r="E56" s="3" t="s">
         <v>26</v>
       </c>
@@ -1951,11 +1972,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
         <v>98</v>
@@ -1968,7 +1989,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="11"/>
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2004,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +2019,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -2012,11 +2033,11 @@
         <v>103</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="B61" t="s">
         <v>8</v>
       </c>
@@ -2058,10 +2079,10 @@
         <v>26</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,7 +2287,7 @@
         <v>131</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,7 +2360,7 @@
         <v>130</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,7 +2377,7 @@
         <v>132</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2367,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,28 +2422,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>134</v>
       </c>
@@ -2434,21 +2455,21 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>135</v>
       </c>
@@ -2460,37 +2481,37 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s">
-        <v>162</v>
-      </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" t="s">
         <v>136</v>
       </c>
@@ -2502,8 +2523,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>65</v>
       </c>
@@ -2515,8 +2536,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2528,16 +2549,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
+      <c r="E11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,14 +2568,14 @@
       <c r="B12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>154</v>
+      <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2575,25 +2596,25 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" t="s">
         <v>134</v>
       </c>
@@ -2605,21 +2626,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>135</v>
       </c>
@@ -2631,34 +2652,34 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="C20" t="s">
         <v>136</v>
       </c>
@@ -2670,8 +2691,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>65</v>
       </c>
@@ -2683,8 +2704,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -2696,58 +2717,62 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>202</v>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="10"/>
+        <v>203</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="C24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>204</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
+      <c r="A25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>27</v>
@@ -2757,586 +2782,632 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
+      <c r="E27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
       <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" t="s">
         <v>171</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="E34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="E32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="E62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" t="s">
+      <c r="C64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="E65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="B14:B23"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SVG-Features.xlsx
+++ b/SVG-Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="11715" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="11715" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Elemente" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="206">
   <si>
     <t>Eigenschaft</t>
   </si>
@@ -315,9 +315,6 @@
     <t>nötig</t>
   </si>
   <si>
-    <t>nur Master</t>
-  </si>
-  <si>
     <t>ab 2.0</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
     <t>(keine definiert)</t>
   </si>
   <si>
-    <t>was tut es?</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -408,9 +402,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>bricht ab</t>
-  </si>
-  <si>
     <t>Linie</t>
   </si>
   <si>
@@ -555,9 +546,6 @@
     <t>image</t>
   </si>
   <si>
-    <t>eventuell auch nur deckende</t>
-  </si>
-  <si>
     <t>solidcolor</t>
   </si>
   <si>
@@ -612,9 +600,6 @@
     <t>nur 1. Stop</t>
   </si>
   <si>
-    <t>funktioniert das, wenn viewBox gesetzt ist?</t>
-  </si>
-  <si>
     <t>eventuell teilweise mit WidenPath möglich?</t>
   </si>
   <si>
@@ -643,6 +628,12 @@
   </si>
   <si>
     <t>kein Verlauf</t>
+  </si>
+  <si>
+    <t>im relativen Modus Arkustangens (tan⁻¹) von CurveTo nicht berechenbar</t>
+  </si>
+  <si>
+    <t>nur wenn symbol eine viewBox hat</t>
   </si>
 </sst>
 </file>
@@ -725,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -752,6 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1056,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,10 +1360,10 @@
         <v>98</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1508,7 +1500,7 @@
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>26</v>
@@ -1565,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1580,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,7 +1635,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,15 +1668,15 @@
         <v>26</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>178</v>
+      <c r="A39" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
@@ -1695,14 +1687,9 @@
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G39" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -1739,14 +1726,11 @@
       <c r="C42" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>99</v>
+      <c r="E42" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,108 +1741,101 @@
       <c r="C43" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>99</v>
+      <c r="E43" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="11"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>99</v>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>26</v>
+      <c r="E47" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>26</v>
+      <c r="E48" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>180</v>
-      </c>
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>27</v>
@@ -1866,104 +1843,119 @@
       <c r="F49" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="E51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>197</v>
+      <c r="E52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>184</v>
-      </c>
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>197</v>
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" t="s">
-        <v>187</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="11"/>
       <c r="E55" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" t="s">
-        <v>188</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="11"/>
       <c r="E56" s="3" t="s">
         <v>26</v>
       </c>
@@ -1972,204 +1964,280 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>63</v>
+      <c r="A57" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>27</v>
+      <c r="E57" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="B58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="11" t="s">
+        <v>181</v>
+      </c>
       <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>27</v>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" t="s">
-        <v>198</v>
+        <v>183</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C66" s="12">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F68" s="3" t="s">
+      <c r="B73" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="A57:A61"/>
+  <mergeCells count="14">
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="A62:A66"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A38"/>
-    <mergeCell ref="A49:A51"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2178,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,12 +2257,12 @@
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -2206,178 +2274,181 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>116</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>122</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2390,8 +2461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,13 +2500,13 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -2445,7 +2516,7 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>27</v>
@@ -2458,20 +2529,20 @@
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>27</v>
@@ -2484,36 +2555,36 @@
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>27</v>
@@ -2555,10 +2626,10 @@
         <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2569,13 +2640,13 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2603,20 +2674,20 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
@@ -2629,20 +2700,20 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>27</v>
@@ -2655,33 +2726,33 @@
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2723,27 +2794,27 @@
         <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,7 +2825,7 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>26</v>
@@ -2763,16 +2834,16 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>27</v>
@@ -2785,7 +2856,7 @@
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>27</v>
@@ -2798,7 +2869,7 @@
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>27</v>
@@ -2809,11 +2880,11 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
@@ -2822,17 +2893,17 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>26</v>
@@ -2841,14 +2912,14 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
@@ -2861,7 +2932,7 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>27</v>
@@ -2874,10 +2945,10 @@
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>26</v>
@@ -2888,7 +2959,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="9"/>
       <c r="E34" s="2" t="s">
@@ -2898,25 +2969,25 @@
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2995,14 +3066,14 @@
         <v>27</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>27</v>
@@ -3018,7 +3089,7 @@
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>27</v>
@@ -3142,7 +3213,7 @@
         <v>93</v>
       </c>
       <c r="G50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3182,34 +3253,34 @@
         <v>95</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>1</v>
@@ -3228,7 +3299,7 @@
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>27</v>
@@ -3241,7 +3312,7 @@
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>27</v>
@@ -3254,7 +3325,7 @@
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>27</v>
@@ -3267,7 +3338,7 @@
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>27</v>
@@ -3280,7 +3351,7 @@
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>27</v>
@@ -3293,7 +3364,7 @@
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>27</v>
@@ -3304,14 +3375,14 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" t="s">
         <v>72</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>27</v>
@@ -3324,7 +3395,7 @@
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="2" t="s">
@@ -3336,24 +3407,24 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>74</v>
@@ -3372,7 +3443,7 @@
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>27</v>

--- a/SVG-Features.xlsx
+++ b/SVG-Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="11715" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="11715" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elemente" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="206">
   <si>
     <t>Eigenschaft</t>
   </si>
@@ -630,10 +630,10 @@
     <t>kein Verlauf</t>
   </si>
   <si>
-    <t>im relativen Modus Arkustangens (tan⁻¹) von CurveTo nicht berechenbar</t>
-  </si>
-  <si>
     <t>nur wenn symbol eine viewBox hat</t>
+  </si>
+  <si>
+    <t>vielleicht voll</t>
   </si>
 </sst>
 </file>
@@ -740,10 +740,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1050,9 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,7 +1081,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1100,7 +1098,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1113,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1128,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1143,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -1162,7 +1160,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1177,7 +1175,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1190,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -1209,7 +1207,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1222,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1239,7 +1237,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1252,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
@@ -1271,7 +1269,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1284,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
         <v>17</v>
       </c>
@@ -1301,7 +1299,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1348,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -1367,7 +1365,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1382,7 +1380,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B21" t="s">
@@ -1399,7 +1397,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1415,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -1432,7 +1430,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" t="s">
         <v>33</v>
       </c>
@@ -1447,7 +1445,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1460,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1477,7 +1475,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1492,7 +1490,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1505,12 +1503,12 @@
       <c r="E28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
+      <c r="F28" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1526,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" t="s">
         <v>39</v>
       </c>
@@ -1546,7 +1544,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" t="s">
         <v>42</v>
       </c>
@@ -1561,7 +1559,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" t="s">
         <v>43</v>
       </c>
@@ -1576,7 +1574,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" t="s">
         <v>45</v>
       </c>
@@ -1591,7 +1589,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="12"/>
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -1606,7 +1604,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12"/>
       <c r="B35" t="s">
         <v>48</v>
       </c>
@@ -1624,7 +1622,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -1639,7 +1637,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="12"/>
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1652,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="12"/>
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -1672,7 +1670,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="12" t="s">
         <v>175</v>
       </c>
       <c r="B39" t="s">
@@ -1689,7 +1687,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1702,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="12"/>
       <c r="B41" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1717,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="12"/>
       <c r="B42" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1732,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="12"/>
       <c r="B43" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1747,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12"/>
       <c r="B44" t="s">
         <v>185</v>
       </c>
@@ -1764,7 +1762,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B45" t="s">
@@ -1781,7 +1779,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
+      <c r="A46" s="12"/>
       <c r="B46" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1794,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="12"/>
       <c r="B47" t="s">
         <v>7</v>
       </c>
@@ -1809,12 +1807,12 @@
       <c r="F47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="12"/>
       <c r="B48" t="s">
         <v>8</v>
       </c>
@@ -1827,10 +1825,10 @@
       <c r="F48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="12"/>
       <c r="B49" t="s">
         <v>58</v>
       </c>
@@ -1843,10 +1841,10 @@
       <c r="F49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12"/>
       <c r="B50" t="s">
         <v>185</v>
       </c>
@@ -1859,10 +1857,10 @@
       <c r="F50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="11"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B51" t="s">
@@ -1882,7 +1880,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="B52" t="s">
         <v>58</v>
       </c>
@@ -1897,7 +1895,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="12"/>
       <c r="B53" t="s">
         <v>185</v>
       </c>
@@ -1912,7 +1910,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B54" t="s">
@@ -1921,7 +1919,7 @@
       <c r="C54" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -1932,14 +1930,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="12"/>
       <c r="B55" t="s">
         <v>177</v>
       </c>
       <c r="C55" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="4" t="s">
         <v>159</v>
       </c>
@@ -1948,14 +1946,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
       <c r="B56" t="s">
         <v>178</v>
       </c>
       <c r="C56" t="s">
         <v>97</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="3" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +1996,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="12" t="s">
         <v>181</v>
       </c>
       <c r="B59" t="s">
@@ -2012,7 +2010,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" t="s">
         <v>183</v>
       </c>
@@ -2024,7 +2022,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="12"/>
       <c r="B61" t="s">
         <v>184</v>
       </c>
@@ -2036,7 +2034,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
@@ -2053,7 +2051,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="12"/>
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2066,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="12"/>
       <c r="B64" t="s">
         <v>6</v>
       </c>
@@ -2083,11 +2081,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="12"/>
       <c r="B65" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="11">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2097,15 +2095,15 @@
         <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="12"/>
       <c r="B66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2115,7 +2113,7 @@
         <v>27</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,18 +2244,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>126</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -2316,7 +2312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -2330,7 +2326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2344,21 +2340,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2372,7 +2368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2386,7 +2382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -2431,7 +2427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -2446,9 +2442,6 @@
       </c>
       <c r="E13" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2461,9 +2454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2493,10 +2484,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C2" t="s">
@@ -2513,8 +2504,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>131</v>
       </c>
@@ -2526,8 +2517,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>156</v>
       </c>
@@ -2539,8 +2530,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>132</v>
       </c>
@@ -2552,8 +2543,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -2565,8 +2556,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" t="s">
         <v>158</v>
       </c>
@@ -2581,8 +2572,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" t="s">
         <v>133</v>
       </c>
@@ -2594,8 +2585,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" t="s">
         <v>65</v>
       </c>
@@ -2607,8 +2598,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -2620,8 +2611,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" t="s">
         <v>67</v>
       </c>
@@ -2667,10 +2658,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C14" t="s">
@@ -2684,8 +2675,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>131</v>
       </c>
@@ -2697,8 +2688,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>156</v>
       </c>
@@ -2710,8 +2701,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -2723,8 +2714,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" t="s">
         <v>157</v>
       </c>
@@ -2736,8 +2727,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" t="s">
         <v>158</v>
       </c>
@@ -2749,8 +2740,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -2762,8 +2753,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" t="s">
         <v>65</v>
       </c>
@@ -2775,8 +2766,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" t="s">
         <v>76</v>
       </c>
@@ -2788,8 +2779,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>67</v>
       </c>
@@ -2838,10 +2829,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" t="s">
         <v>168</v>
       </c>
@@ -2853,8 +2844,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" t="s">
         <v>166</v>
       </c>
@@ -2866,8 +2857,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>170</v>
       </c>
@@ -2879,10 +2870,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" t="s">
         <v>165</v>
       </c>
@@ -2897,8 +2888,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" t="s">
         <v>167</v>
       </c>
@@ -2916,8 +2907,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" t="s">
         <v>166</v>
       </c>
@@ -2929,8 +2920,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" t="s">
         <v>168</v>
       </c>
@@ -2942,8 +2933,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" t="s">
         <v>169</v>
       </c>
@@ -2991,10 +2982,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
@@ -3011,8 +3002,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" t="s">
         <v>84</v>
       </c>
@@ -3024,8 +3015,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3028,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>65</v>
       </c>
@@ -3050,10 +3041,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C40" t="s">
@@ -3070,8 +3061,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" t="s">
         <v>149</v>
       </c>
@@ -3086,8 +3077,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" t="s">
         <v>160</v>
       </c>
@@ -3099,10 +3090,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
@@ -3119,8 +3110,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" t="s">
         <v>84</v>
       </c>
@@ -3132,8 +3123,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" t="s">
         <v>87</v>
       </c>
@@ -3145,8 +3136,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" t="s">
         <v>86</v>
       </c>
@@ -3158,8 +3149,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" t="s">
         <v>88</v>
       </c>
@@ -3171,10 +3162,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C48" t="s">
@@ -3188,8 +3179,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" t="s">
         <v>91</v>
       </c>
@@ -3201,8 +3192,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" t="s">
         <v>92</v>
       </c>
@@ -3217,10 +3208,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
@@ -3234,8 +3225,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
         <v>94</v>
       </c>
@@ -3247,8 +3238,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" t="s">
         <v>95</v>
       </c>
@@ -3263,8 +3254,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" t="s">
         <v>201</v>
       </c>
@@ -3279,10 +3270,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -3296,8 +3287,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" t="s">
         <v>136</v>
       </c>
@@ -3309,8 +3300,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" t="s">
         <v>137</v>
       </c>
@@ -3322,8 +3313,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" t="s">
         <v>138</v>
       </c>
@@ -3335,8 +3326,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" t="s">
         <v>139</v>
       </c>
@@ -3348,8 +3339,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" t="s">
         <v>140</v>
       </c>
@@ -3361,8 +3352,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
       <c r="C61" t="s">
         <v>141</v>
       </c>
@@ -3374,14 +3365,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="12"/>
       <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="12" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -3392,12 +3383,12 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
       <c r="C63" t="s">
         <v>148</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="12"/>
       <c r="E63" s="2" t="s">
         <v>27</v>
       </c>
@@ -3423,10 +3414,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C65" t="s">
@@ -3440,8 +3431,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
       <c r="C66" t="s">
         <v>148</v>
       </c>
@@ -3454,21 +3445,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="A14:A23"/>
     <mergeCell ref="B14:B23"/>
     <mergeCell ref="B2:B11"/>
@@ -3479,6 +3455,21 @@
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
